--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_WBV_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_WBV_control_by_struct.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T2LV_log1p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,4 +680,526 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AV_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-0.440, -0.267]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VA_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.242, -0.091]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VLa_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.169, -0.011]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>VLP_6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.310, -0.159]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>VPL_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.290</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.370, -0.209]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Pul_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.427</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.506, -0.348]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGN_9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.448, -0.247]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MGN_10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.373, -0.229]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM_11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.270, -0.125]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MD_Pf_12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.329</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.407, -0.251]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AV_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-0.213, -0.072]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VA_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.035</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.123, 0.053]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.438</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VLa_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.139, 0.002]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>VLP_6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.164, -0.033]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>VPL_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.179, -0.044]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Pul_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.282, -0.130]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGN_9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.188, -0.028]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MGN_10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.095</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.160, -0.029]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM_11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.061</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.122, -0.000]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MD_Pf_12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.173, -0.064]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>